--- a/medicine/Nettoyage et hygiène/Vaisselle_(tâche_ménagère)/Vaisselle_(tâche_ménagère).xlsx
+++ b/medicine/Nettoyage et hygiène/Vaisselle_(tâche_ménagère)/Vaisselle_(tâche_ménagère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vaisselle_(t%C3%A2che_m%C3%A9nag%C3%A8re)</t>
+          <t>Vaisselle_(tâche_ménagère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vaisselle, ou en forme longue faire la vaisselle, est une tâche ménagère consistant à laver avec de l'eau et généralement du savon ou du liquide vaisselle les plats, couverts de table et ustensiles de cuisine salis lors d'un ou plusieurs précédents repas. Le lave-vaisselle ne permet pas de laver tous les ustensiles.
 Cette tâche était traditionnellement dévolue aux femmes dans les foyers traditionnels. Elle est accomplie par du personnel appelé plongeurs dans la restauration. On peut s'en dispenser en utilisant un lave-vaisselle, appareil électroménager qui en outre utilise moins d'eau qu'un laveur humain[réf. souhaitée].
